--- a/assets/formats/Parts.xlsx
+++ b/assets/formats/Parts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SQIM\assets\formats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SQIM\assets\formats\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,17 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Part Name</t>
   </si>
   <si>
-    <t>ELP001</t>
-  </si>
-  <si>
-    <t>ELP002</t>
-  </si>
-  <si>
     <t>ELP003</t>
   </si>
   <si>
@@ -72,6 +66,21 @@
   </si>
   <si>
     <t>Part Number</t>
+  </si>
+  <si>
+    <t>Is Delete</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>ELP001w</t>
+  </si>
+  <si>
+    <t>ELP002e</t>
   </si>
 </sst>
 </file>
@@ -429,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,68 +450,92 @@
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
+      <c r="C8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
